--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N2">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O2">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P2">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q2">
-        <v>798.6407975381405</v>
+        <v>700.8201894023671</v>
       </c>
       <c r="R2">
-        <v>7187.767177843265</v>
+        <v>6307.381704621303</v>
       </c>
       <c r="S2">
-        <v>0.01752026558522949</v>
+        <v>0.02321110029651524</v>
       </c>
       <c r="T2">
-        <v>0.01752026558522949</v>
+        <v>0.02321110029651524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.902445</v>
       </c>
       <c r="O3">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P3">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q3">
-        <v>292.0466208614716</v>
+        <v>295.5509484724867</v>
       </c>
       <c r="R3">
-        <v>2628.419587753245</v>
+        <v>2659.95853625238</v>
       </c>
       <c r="S3">
-        <v>0.006406803129184555</v>
+        <v>0.009788620264457705</v>
       </c>
       <c r="T3">
-        <v>0.006406803129184555</v>
+        <v>0.009788620264457705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N4">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O4">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P4">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q4">
-        <v>3360.622243109234</v>
+        <v>3746.581098299174</v>
       </c>
       <c r="R4">
-        <v>30245.6001879831</v>
+        <v>33719.22988469257</v>
       </c>
       <c r="S4">
-        <v>0.07372400009165769</v>
+        <v>0.1240864218192808</v>
       </c>
       <c r="T4">
-        <v>0.07372400009165769</v>
+        <v>0.1240864218192808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N5">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O5">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P5">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q5">
-        <v>515.002690051808</v>
+        <v>449.2190983192212</v>
       </c>
       <c r="R5">
-        <v>4635.024210466272</v>
+        <v>4042.971884872992</v>
       </c>
       <c r="S5">
-        <v>0.01129792509301955</v>
+        <v>0.014878095271612</v>
       </c>
       <c r="T5">
-        <v>0.01129792509301955</v>
+        <v>0.01487809527161201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N6">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O6">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P6">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q6">
-        <v>4028.716716654735</v>
+        <v>3308.903072809578</v>
       </c>
       <c r="R6">
-        <v>36258.45044989262</v>
+        <v>29780.12765528621</v>
       </c>
       <c r="S6">
-        <v>0.08838039211248014</v>
+        <v>0.109590565819637</v>
       </c>
       <c r="T6">
-        <v>0.08838039211248012</v>
+        <v>0.109590565819637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N7">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O7">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P7">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q7">
-        <v>958.8486837495807</v>
+        <v>831.4287107037877</v>
       </c>
       <c r="R7">
-        <v>8629.638153746228</v>
+        <v>7482.85839633409</v>
       </c>
       <c r="S7">
-        <v>0.02103484275675023</v>
+        <v>0.02753684252447821</v>
       </c>
       <c r="T7">
-        <v>0.02103484275675023</v>
+        <v>0.02753684252447821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.902445</v>
       </c>
       <c r="O8">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P8">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q8">
         <v>350.6313712869917</v>
@@ -948,10 +948,10 @@
         <v>3155.682341582925</v>
       </c>
       <c r="S8">
-        <v>0.007692012186702657</v>
+        <v>0.01161287880845339</v>
       </c>
       <c r="T8">
-        <v>0.007692012186702657</v>
+        <v>0.01161287880845339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N9">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O9">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P9">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q9">
-        <v>4034.765346721426</v>
+        <v>4444.813575879472</v>
       </c>
       <c r="R9">
-        <v>36312.88812049284</v>
+        <v>40003.32218291525</v>
       </c>
       <c r="S9">
-        <v>0.08851308456385741</v>
+        <v>0.1472118173379532</v>
       </c>
       <c r="T9">
-        <v>0.08851308456385741</v>
+        <v>0.1472118173379532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N10">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O10">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P10">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q10">
-        <v>618.3125793296161</v>
+        <v>532.9379224328133</v>
       </c>
       <c r="R10">
-        <v>5564.813213966545</v>
+        <v>4796.44130189532</v>
       </c>
       <c r="S10">
-        <v>0.01356429653723745</v>
+        <v>0.0176508550359447</v>
       </c>
       <c r="T10">
-        <v>0.01356429653723745</v>
+        <v>0.0176508550359447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N11">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O11">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P11">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q11">
-        <v>4836.88002525296</v>
+        <v>3925.56758105944</v>
       </c>
       <c r="R11">
-        <v>43531.92022727664</v>
+        <v>35330.10822953497</v>
       </c>
       <c r="S11">
-        <v>0.1061095587747962</v>
+        <v>0.13001443768682</v>
       </c>
       <c r="T11">
-        <v>0.1061095587747962</v>
+        <v>0.13001443768682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N12">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O12">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P12">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q12">
-        <v>1299.740093845928</v>
+        <v>386.2583666183473</v>
       </c>
       <c r="R12">
-        <v>11697.66084461336</v>
+        <v>3476.325299565126</v>
       </c>
       <c r="S12">
-        <v>0.02851318353150406</v>
+        <v>0.01279284162117538</v>
       </c>
       <c r="T12">
-        <v>0.02851318353150406</v>
+        <v>0.01279284162117538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.902445</v>
       </c>
       <c r="O13">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P13">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q13">
-        <v>475.288394452135</v>
+        <v>162.893461597955</v>
       </c>
       <c r="R13">
-        <v>4277.595550069215</v>
+        <v>1466.041154381595</v>
       </c>
       <c r="S13">
-        <v>0.01042668860149364</v>
+        <v>0.005395016484928791</v>
       </c>
       <c r="T13">
-        <v>0.01042668860149364</v>
+        <v>0.005395016484928791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N14">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O14">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P14">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q14">
-        <v>5469.21154429368</v>
+        <v>2064.935224920227</v>
       </c>
       <c r="R14">
-        <v>49222.90389864313</v>
+        <v>18584.41702428204</v>
       </c>
       <c r="S14">
-        <v>0.1199813972604527</v>
+        <v>0.06839046496691691</v>
       </c>
       <c r="T14">
-        <v>0.1199813972604527</v>
+        <v>0.06839046496691691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N15">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O15">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P15">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q15">
-        <v>838.1360516044457</v>
+        <v>247.587951652072</v>
       </c>
       <c r="R15">
-        <v>7543.224464440011</v>
+        <v>2228.291564868648</v>
       </c>
       <c r="S15">
-        <v>0.01838669683032843</v>
+        <v>0.008200090215588186</v>
       </c>
       <c r="T15">
-        <v>0.01838669683032843</v>
+        <v>0.008200090215588188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N16">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O16">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P16">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q16">
-        <v>6556.495309937404</v>
+        <v>1823.708157283206</v>
       </c>
       <c r="R16">
-        <v>59008.45778943664</v>
+        <v>16413.37341554885</v>
       </c>
       <c r="S16">
-        <v>0.1438337979884242</v>
+        <v>0.06040104664560413</v>
       </c>
       <c r="T16">
-        <v>0.1438337979884242</v>
+        <v>0.06040104664560413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N17">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O17">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P17">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q17">
-        <v>97.98858116352112</v>
+        <v>112.953004659616</v>
       </c>
       <c r="R17">
-        <v>881.8972304716901</v>
+        <v>1016.577041936544</v>
       </c>
       <c r="S17">
-        <v>0.002149634693840842</v>
+        <v>0.003740993138600703</v>
       </c>
       <c r="T17">
-        <v>0.002149634693840841</v>
+        <v>0.003740993138600704</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.902445</v>
       </c>
       <c r="O18">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P18">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q18">
-        <v>35.83242190986333</v>
+        <v>47.63471167752</v>
       </c>
       <c r="R18">
-        <v>322.49179718877</v>
+        <v>428.71240509768</v>
       </c>
       <c r="S18">
-        <v>0.0007860774835921409</v>
+        <v>0.00157765727509272</v>
       </c>
       <c r="T18">
-        <v>0.0007860774835921408</v>
+        <v>0.001577657275092721</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N19">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O19">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P19">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q19">
-        <v>412.3288046940992</v>
+        <v>603.846177169488</v>
       </c>
       <c r="R19">
-        <v>3710.959242246893</v>
+        <v>5434.615594525392</v>
       </c>
       <c r="S19">
-        <v>0.0090455060509676</v>
+        <v>0.01999932991927723</v>
       </c>
       <c r="T19">
-        <v>0.009045506050967598</v>
+        <v>0.01999932991927724</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N20">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O20">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P20">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q20">
-        <v>63.18783494298422</v>
+        <v>72.40180530316799</v>
       </c>
       <c r="R20">
-        <v>568.690514486858</v>
+        <v>651.616247728512</v>
       </c>
       <c r="S20">
-        <v>0.001386189703017092</v>
+        <v>0.002397941140899051</v>
       </c>
       <c r="T20">
-        <v>0.001386189703017091</v>
+        <v>0.002397941140899052</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N21">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O21">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P21">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q21">
-        <v>494.300111128375</v>
+        <v>533.3044764592159</v>
       </c>
       <c r="R21">
-        <v>4448.701000155374</v>
+        <v>4799.740288132944</v>
       </c>
       <c r="S21">
-        <v>0.01084376011402547</v>
+        <v>0.01766299527162795</v>
       </c>
       <c r="T21">
-        <v>0.01084376011402547</v>
+        <v>0.01766299527162795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.291888333333334</v>
+        <v>5.455768666666667</v>
       </c>
       <c r="N22">
-        <v>18.875665</v>
+        <v>16.367306</v>
       </c>
       <c r="O22">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="P22">
-        <v>0.08878690568774233</v>
+        <v>0.0824390136851795</v>
       </c>
       <c r="Q22">
-        <v>892.0290058224539</v>
+        <v>457.6472869364049</v>
       </c>
       <c r="R22">
-        <v>8028.261052402086</v>
+        <v>4118.825582427644</v>
       </c>
       <c r="S22">
-        <v>0.01956897912041771</v>
+        <v>0.01515723610440996</v>
       </c>
       <c r="T22">
-        <v>0.01956897912041771</v>
+        <v>0.01515723610440996</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.902445</v>
       </c>
       <c r="O23">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="P23">
-        <v>0.03246755720817405</v>
+        <v>0.03476630532942922</v>
       </c>
       <c r="Q23">
-        <v>326.1967804098117</v>
+        <v>192.9997048676033</v>
       </c>
       <c r="R23">
-        <v>2935.771023688305</v>
+        <v>1736.99734380843</v>
       </c>
       <c r="S23">
-        <v>0.007155975807201051</v>
+        <v>0.006392132496496614</v>
       </c>
       <c r="T23">
-        <v>0.00715597580720105</v>
+        <v>0.006392132496496614</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.47580733333334</v>
+        <v>29.166511</v>
       </c>
       <c r="N24">
-        <v>79.42742200000001</v>
+        <v>87.499533</v>
       </c>
       <c r="O24">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="P24">
-        <v>0.3736088252326215</v>
+        <v>0.4407185396566677</v>
       </c>
       <c r="Q24">
-        <v>3753.593014164032</v>
+        <v>2446.580022738771</v>
       </c>
       <c r="R24">
-        <v>33782.33712747628</v>
+        <v>22019.22020464894</v>
       </c>
       <c r="S24">
-        <v>0.08234483726568609</v>
+        <v>0.08103050561323963</v>
       </c>
       <c r="T24">
-        <v>0.08234483726568607</v>
+        <v>0.08103050561323963</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.057317666666666</v>
+        <v>3.497096</v>
       </c>
       <c r="N25">
-        <v>12.171953</v>
+        <v>10.491288</v>
       </c>
       <c r="O25">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124592</v>
       </c>
       <c r="P25">
-        <v>0.0572541440551436</v>
+        <v>0.05284262633124593</v>
       </c>
       <c r="Q25">
-        <v>575.2239793145108</v>
+        <v>293.3475728790346</v>
       </c>
       <c r="R25">
-        <v>5177.015813830596</v>
+        <v>2640.128155911312</v>
       </c>
       <c r="S25">
-        <v>0.01261903589154108</v>
+        <v>0.009715644667201977</v>
       </c>
       <c r="T25">
-        <v>0.01261903589154108</v>
+        <v>0.009715644667201978</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.73921966666667</v>
+        <v>25.75926033333333</v>
       </c>
       <c r="N26">
-        <v>95.217659</v>
+        <v>77.277781</v>
       </c>
       <c r="O26">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="P26">
-        <v>0.4478825678163185</v>
+        <v>0.3892335149974776</v>
       </c>
       <c r="Q26">
-        <v>4499.81040109111</v>
+        <v>2160.768963146144</v>
       </c>
       <c r="R26">
-        <v>40498.29360981999</v>
+        <v>19446.9206683153</v>
       </c>
       <c r="S26">
-        <v>0.09871505882659252</v>
+        <v>0.07156446957378851</v>
       </c>
       <c r="T26">
-        <v>0.0987150588265925</v>
+        <v>0.07156446957378851</v>
       </c>
     </row>
   </sheetData>
